--- a/r1.xlsx
+++ b/r1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D26DA0-6802-4988-85EF-EDC23FFAE2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DD7A3-ACCB-47B3-AE3E-23627F67B8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="3825" windowWidth="24240" windowHeight="13140" xr2:uid="{8AF6177D-027E-4F3C-85E3-FE9ADAEF4D3B}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8AF6177D-027E-4F3C-85E3-FE9ADAEF4D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,22 +42,22 @@
     <t>Colour</t>
   </si>
   <si>
-    <t>BattlefieldTour.xlsx</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>WWI Tour</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Battlefield Tour</t>
+    <t>1stBttnCEFJun1916.xlsx</t>
+  </si>
+  <si>
+    <t>1st Canadian Battalion</t>
+  </si>
+  <si>
+    <t>1stCdnBttn</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,24 +428,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
